--- a/data/Mappings/mapping_land_npv.xlsx
+++ b/data/Mappings/mapping_land_npv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/Mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4936E7A1-2A87-4F10-BBDD-2DD6466B38E8}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3984D8EA-B87D-4ABC-A42D-C761150434D9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-705" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,9 @@
   <commentList>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3808FA42-9A5E-45B4-902A-08CECC722B7A}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     une plaine semi-aride ou herbacée, sans arbres, caractérisée par un climat sec et des végétations de type graminée. </t>
       </text>
     </comment>
@@ -629,21 +629,21 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -735,7 +735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -758,7 +758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -781,7 +781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -850,7 +850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -873,7 +873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -896,7 +896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -965,7 +965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>69</v>
       </c>
